--- a/data/output/Pedido_Semana_07_21022026_utiles_jardin.xlsx
+++ b/data/output/Pedido_Semana_07_21022026_utiles_jardin.xlsx
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21" s="2" t="n">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="2" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S28" s="2" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S30" s="2" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>2</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S31" s="2" t="n">
         <v>9</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
